--- a/Connect 4/IA_2324_GroupEvaluation_TP3_Group9.xlsx
+++ b/Connect 4/IA_2324_GroupEvaluation_TP3_Group9.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D53FAAA-D319-44DC-85F6-427BDC053F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633CE37B-299C-4E4B-8DD2-7431F54CB79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="17505" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Student</t>
   </si>
   <si>
-    <t>Student 1</t>
-  </si>
-  <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Student 3</t>
-  </si>
-  <si>
     <t>Task the student participated</t>
   </si>
   <si>
@@ -56,6 +47,18 @@
   </si>
   <si>
     <t>% of participation in the project (sum of all students should be = 100%)</t>
+  </si>
+  <si>
+    <t>Documented the Notebook as well as helped develop the main algorithms and analyse their performance</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Approached the Problem and assessed it as a Search Problem alongside the respective code</t>
+  </si>
+  <si>
+    <t>Helped developing the code behind the algorithms and the game interfaces. Moreover, he was responsible for recording, editing and uploading the Video Footage.</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -129,6 +132,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -414,25 +423,26 @@
   <dimension ref="D3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="107.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="4:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -440,44 +450,58 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="G8" s="4" t="str">
+        <f>G7</f>
+        <v>~</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>G7</f>
+        <v>~</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Connect 4/IA_2324_GroupEvaluation_TP3_Group9.xlsx
+++ b/Connect 4/IA_2324_GroupEvaluation_TP3_Group9.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633CE37B-299C-4E4B-8DD2-7431F54CB79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BA128B-1ED4-422C-85B7-C081FF472476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="D3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
